--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H2">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I2">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J2">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N2">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P2">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q2">
-        <v>5.295731877709001</v>
+        <v>6.658085253074444</v>
       </c>
       <c r="R2">
-        <v>47.66158689938101</v>
+        <v>59.92276727766999</v>
       </c>
       <c r="S2">
-        <v>0.03610130798478756</v>
+        <v>0.0434799114838218</v>
       </c>
       <c r="T2">
-        <v>0.03610130798478757</v>
+        <v>0.04347991148382179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H3">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I3">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J3">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.862121</v>
       </c>
       <c r="O3">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P3">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q3">
-        <v>6.777944132140999</v>
+        <v>8.83276637409833</v>
       </c>
       <c r="R3">
-        <v>61.001497189269</v>
+        <v>79.49489736688497</v>
       </c>
       <c r="S3">
-        <v>0.04620563394609829</v>
+        <v>0.0576814332507585</v>
       </c>
       <c r="T3">
-        <v>0.0462056339460983</v>
+        <v>0.05768143325075849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H4">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I4">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J4">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N4">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P4">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q4">
-        <v>4.069990350786001</v>
+        <v>5.30135244859611</v>
       </c>
       <c r="R4">
-        <v>36.629913157074</v>
+        <v>47.71217203736499</v>
       </c>
       <c r="S4">
-        <v>0.02774535768461215</v>
+        <v>0.03461991345080237</v>
       </c>
       <c r="T4">
-        <v>0.02774535768461215</v>
+        <v>0.03461991345080236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.466863</v>
+        <v>1.911561666666666</v>
       </c>
       <c r="H5">
-        <v>4.400589</v>
+        <v>5.734684999999999</v>
       </c>
       <c r="I5">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="J5">
-        <v>0.1487565800342047</v>
+        <v>0.1720155802183755</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N5">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O5">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P5">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q5">
-        <v>5.677564139878333</v>
+        <v>5.548567072699443</v>
       </c>
       <c r="R5">
-        <v>51.098077258905</v>
+        <v>49.93710365429499</v>
       </c>
       <c r="S5">
-        <v>0.03870428041870667</v>
+        <v>0.03623432203299284</v>
       </c>
       <c r="T5">
-        <v>0.03870428041870668</v>
+        <v>0.03623432203299282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.368332</v>
       </c>
       <c r="I6">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J6">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N6">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O6">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P6">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q6">
-        <v>16.08764234155867</v>
+        <v>15.52090378938044</v>
       </c>
       <c r="R6">
-        <v>144.788781074028</v>
+        <v>139.688134104424</v>
       </c>
       <c r="S6">
-        <v>0.1096703806637909</v>
+        <v>0.1013575971559628</v>
       </c>
       <c r="T6">
-        <v>0.109670380663791</v>
+        <v>0.1013575971559628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.368332</v>
       </c>
       <c r="I7">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J7">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>13.862121</v>
       </c>
       <c r="O7">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P7">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q7">
         <v>20.59038175024133</v>
@@ -883,10 +883,10 @@
         <v>185.313435752172</v>
       </c>
       <c r="S7">
-        <v>0.1403658134994911</v>
+        <v>0.1344632791394783</v>
       </c>
       <c r="T7">
-        <v>0.1403658134994911</v>
+        <v>0.1344632791394783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.368332</v>
       </c>
       <c r="I8">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J8">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N8">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O8">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P8">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q8">
-        <v>12.364022690168</v>
+        <v>12.35817478760311</v>
       </c>
       <c r="R8">
-        <v>111.276204211512</v>
+        <v>111.223573088428</v>
       </c>
       <c r="S8">
-        <v>0.08428625190551686</v>
+        <v>0.08070373469887043</v>
       </c>
       <c r="T8">
-        <v>0.08428625190551688</v>
+        <v>0.08070373469887043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.368332</v>
       </c>
       <c r="I9">
-        <v>0.4519002681417918</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="J9">
-        <v>0.4519002681417919</v>
+        <v>0.4009917520372743</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N9">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O9">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P9">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q9">
-        <v>17.24759171401556</v>
+        <v>12.93446575568044</v>
       </c>
       <c r="R9">
-        <v>155.22832542614</v>
+        <v>116.410191801124</v>
       </c>
       <c r="S9">
-        <v>0.1175778220729929</v>
+        <v>0.08446714104296282</v>
       </c>
       <c r="T9">
-        <v>0.1175778220729929</v>
+        <v>0.08446714104296281</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H10">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I10">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J10">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N10">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O10">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P10">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q10">
-        <v>13.175491572425</v>
+        <v>16.03408749882511</v>
       </c>
       <c r="R10">
-        <v>118.579424151825</v>
+        <v>144.306787489426</v>
       </c>
       <c r="S10">
-        <v>0.08981808182344404</v>
+        <v>0.1047088883175306</v>
       </c>
       <c r="T10">
-        <v>0.08981808182344406</v>
+        <v>0.1047088883175306</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H11">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I11">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J11">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.862121</v>
       </c>
       <c r="O11">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P11">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q11">
-        <v>16.863154678825</v>
+        <v>21.27118285750033</v>
       </c>
       <c r="R11">
-        <v>151.768392109425</v>
+        <v>191.440645717503</v>
       </c>
       <c r="S11">
-        <v>0.1149570927519728</v>
+        <v>0.1389091777359314</v>
       </c>
       <c r="T11">
-        <v>0.1149570927519728</v>
+        <v>0.1389091777359314</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H12">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I12">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J12">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N12">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O12">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P12">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q12">
-        <v>10.12591362345</v>
+        <v>12.76678591396078</v>
       </c>
       <c r="R12">
-        <v>91.13322261105002</v>
+        <v>114.901073225647</v>
       </c>
       <c r="S12">
-        <v>0.0690289340150034</v>
+        <v>0.08337212582485252</v>
       </c>
       <c r="T12">
-        <v>0.06902893401500342</v>
+        <v>0.08337212582485251</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.649475</v>
+        <v>4.603447666666667</v>
       </c>
       <c r="H13">
-        <v>10.948425</v>
+        <v>13.810343</v>
       </c>
       <c r="I13">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471451</v>
       </c>
       <c r="J13">
-        <v>0.3700982436126136</v>
+        <v>0.4142501574471449</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N13">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O13">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P13">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q13">
-        <v>14.12546937879167</v>
+        <v>13.36213138690011</v>
       </c>
       <c r="R13">
-        <v>127.129224409125</v>
+        <v>120.259182482101</v>
       </c>
       <c r="S13">
-        <v>0.09629413502219329</v>
+        <v>0.08725996556883045</v>
       </c>
       <c r="T13">
-        <v>0.09629413502219333</v>
+        <v>0.08725996556883044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H14">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I14">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J14">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.610243000000001</v>
+        <v>3.483060666666667</v>
       </c>
       <c r="N14">
-        <v>10.830729</v>
+        <v>10.449182</v>
       </c>
       <c r="O14">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="P14">
-        <v>0.2426871334127642</v>
+        <v>0.2527672867110271</v>
       </c>
       <c r="Q14">
-        <v>1.041118266097</v>
+        <v>0.4932153226426667</v>
       </c>
       <c r="R14">
-        <v>9.370064394873001</v>
+        <v>4.438937903784001</v>
       </c>
       <c r="S14">
-        <v>0.007097362940741605</v>
+        <v>0.003220889753711896</v>
       </c>
       <c r="T14">
-        <v>0.007097362940741606</v>
+        <v>0.003220889753711897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H15">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I15">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J15">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.862121</v>
       </c>
       <c r="O15">
-        <v>0.3106123704610169</v>
+        <v>0.3353267952677969</v>
       </c>
       <c r="P15">
-        <v>0.3106123704610169</v>
+        <v>0.335326795267797</v>
       </c>
       <c r="Q15">
-        <v>1.332514863953</v>
+        <v>0.654310594028</v>
       </c>
       <c r="R15">
-        <v>11.992633775577</v>
+        <v>5.888795346252</v>
       </c>
       <c r="S15">
-        <v>0.00908383026345465</v>
+        <v>0.004272905141628742</v>
       </c>
       <c r="T15">
-        <v>0.009083830263454653</v>
+        <v>0.004272905141628742</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H16">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I16">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J16">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.774622</v>
+        <v>2.773309666666667</v>
       </c>
       <c r="N16">
-        <v>8.323866000000001</v>
+        <v>8.319929</v>
       </c>
       <c r="O16">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="P16">
-        <v>0.1865151624098407</v>
+        <v>0.2012603358768551</v>
       </c>
       <c r="Q16">
-        <v>0.8001427177380001</v>
+        <v>0.3927117420386667</v>
       </c>
       <c r="R16">
-        <v>7.201284459642001</v>
+        <v>3.534405678348</v>
       </c>
       <c r="S16">
-        <v>0.005454618804708257</v>
+        <v>0.002564561902329815</v>
       </c>
       <c r="T16">
-        <v>0.005454618804708258</v>
+        <v>0.002564561902329815</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.288379</v>
+        <v>0.141604</v>
       </c>
       <c r="H17">
-        <v>0.865137</v>
+        <v>0.424812</v>
       </c>
       <c r="I17">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="J17">
-        <v>0.02924490821138983</v>
+        <v>0.01274251029720526</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.870548333333333</v>
+        <v>2.902635666666666</v>
       </c>
       <c r="N17">
-        <v>11.611645</v>
+        <v>8.707906999999999</v>
       </c>
       <c r="O17">
-        <v>0.2601853337163782</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="P17">
-        <v>0.2601853337163783</v>
+        <v>0.2106455821443209</v>
       </c>
       <c r="Q17">
-        <v>1.116184857818333</v>
+        <v>0.4110248209426666</v>
       </c>
       <c r="R17">
-        <v>10.045663720365</v>
+        <v>3.699223388484</v>
       </c>
       <c r="S17">
-        <v>0.007609096202485311</v>
+        <v>0.002684153499534805</v>
       </c>
       <c r="T17">
-        <v>0.007609096202485313</v>
+        <v>0.002684153499534805</v>
       </c>
     </row>
   </sheetData>
